--- a/data_analysis/Fig_01_02_03_04_05_14_Vals_Monitoring.xlsx
+++ b/data_analysis/Fig_01_02_03_04_05_14_Vals_Monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F10950A-DF2A-874B-B041-23B182E124C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2140E-10CD-F04C-A75D-CC341893E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gph_vals_FSC_gilt_2014-2023" sheetId="42" r:id="rId1"/>
@@ -21,19 +21,20 @@
     <sheet name="Best_est_FBB" sheetId="48" r:id="rId6"/>
     <sheet name="Post-ret_pru" sheetId="47" r:id="rId7"/>
     <sheet name="TP_DR" sheetId="51" r:id="rId8"/>
-    <sheet name="Monthly_FMP_march2023" sheetId="45" r:id="rId9"/>
-    <sheet name="Gph_quart_SS_Liab_gilt_yield" sheetId="49" r:id="rId10"/>
-    <sheet name="Gph_quart_SS_Dfct_gilt_yield" sheetId="28" r:id="rId11"/>
-    <sheet name="Gph_quart_TPLiab_gilt_yield" sheetId="34" r:id="rId12"/>
-    <sheet name="USS_data_Quarterly" sheetId="8" r:id="rId13"/>
-    <sheet name="Gph_qt_FSC_both_gilt_yiel_R_All" sheetId="40" r:id="rId14"/>
-    <sheet name="USS_data_Monthly" sheetId="3" r:id="rId15"/>
-    <sheet name="RAW_FSC" sheetId="6" r:id="rId16"/>
-    <sheet name="RAW_GiltsYield_nom" sheetId="7" r:id="rId17"/>
-    <sheet name="RAW_TP_Liabs" sheetId="37" r:id="rId18"/>
-    <sheet name="RAW_SS_deficit" sheetId="27" r:id="rId19"/>
-    <sheet name="RAW_assets" sheetId="31" r:id="rId20"/>
-    <sheet name="Refs" sheetId="10" r:id="rId21"/>
+    <sheet name="FSC_DR" sheetId="52" r:id="rId9"/>
+    <sheet name="Monthly_FMP_march2023" sheetId="45" r:id="rId10"/>
+    <sheet name="Gph_quart_SS_Liab_gilt_yield" sheetId="49" r:id="rId11"/>
+    <sheet name="Gph_quart_SS_Dfct_gilt_yield" sheetId="28" r:id="rId12"/>
+    <sheet name="Gph_quart_TPLiab_gilt_yield" sheetId="34" r:id="rId13"/>
+    <sheet name="USS_data_Quarterly" sheetId="8" r:id="rId14"/>
+    <sheet name="Gph_qt_FSC_both_gilt_yiel_R_All" sheetId="40" r:id="rId15"/>
+    <sheet name="USS_data_Monthly" sheetId="3" r:id="rId16"/>
+    <sheet name="RAW_FSC" sheetId="6" r:id="rId17"/>
+    <sheet name="RAW_GiltsYield_nom" sheetId="7" r:id="rId18"/>
+    <sheet name="RAW_TP_Liabs" sheetId="37" r:id="rId19"/>
+    <sheet name="RAW_SS_deficit" sheetId="27" r:id="rId20"/>
+    <sheet name="RAW_assets" sheetId="31" r:id="rId21"/>
+    <sheet name="Refs" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -375,6 +376,15 @@
   </si>
   <si>
     <t>Assets Val</t>
+  </si>
+  <si>
+    <t>FSC DR</t>
+  </si>
+  <si>
+    <t>TP Vals</t>
+  </si>
+  <si>
+    <t>FSC Vals</t>
   </si>
 </sst>
 </file>
@@ -2678,6 +2688,1578 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>Self</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-Sufficiency Deficit &amp; gilt-yields nominal</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>for post-April 2022 benefits, Mar '22- Sep '23, USS monitoring data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USS_data_Quarterly!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SS Deficit £bn, quarterly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5040981405291571E-2"/>
+                  <c:y val="-5.1459163838829806E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Jun 20</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9529277803439596E-2"/>
+                  <c:y val="-1.1710209863934373E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Sep 20</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.643252301511424E-2"/>
+                  <c:y val="-7.5261094455243687E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Dec 20</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3226520286601335E-2"/>
+                  <c:y val="-4.7275063420419726E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Mar 21</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.685544252398196E-2"/>
+                  <c:y val="8.0339999341086474E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Jun 21</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2257790763876207E-2"/>
+                  <c:y val="-1.7986360491549436E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Sep 21</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2789958212931438E-2"/>
+                  <c:y val="5.3143346621421277E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Dec 21</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.184862124158082E-2"/>
+                  <c:y val="6.56956478766514E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Mar 22</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5972113308483103E-2"/>
+                  <c:y val="1.1302342437320858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Jun</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 22</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0491132332878682E-2"/>
+                  <c:y val="-4.5183013211214706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Sep 22</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F01E-4C4E-B331-DAC9186D7ABB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4989741220955739E-2"/>
+                  <c:y val="-1.5894310282344414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Dec 22</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8376-6E40-9A8E-6AB87DD23F0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10869718877227669"/>
+                  <c:y val="2.5946693901756003E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Mar 23</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8376-6E40-9A8E-6AB87DD23F0D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5896918069415947E-2"/>
+                  <c:y val="-1.1710209863934373E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Jun 23</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2E8B-3642-83D8-D6451C3DC351}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3243600348046639E-2"/>
+                  <c:y val="6.56956478766514E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Sep</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 23</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B774-C844-B330-E372A3574CDD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="1"/>
+            <c:backward val="1"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7114651255223386E-2"/>
+                  <c:y val="-0.63619246861924683"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USS_data_Quarterly!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USS_data_Quarterly!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>"£"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="1">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6F48-A04B-A32B-0E6000ABD90D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>USS_data_Quarterly!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SS Deficit £bn, quarterly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1090211728308859"/>
+                  <c:y val="5.2939412908114519E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Mar 20 </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Full Valuation</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-6F48-A04B-A32B-0E6000ABD90D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17510919422930252"/>
+                  <c:y val="-1.4006193786446228E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Mar 23 </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Full valuation</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-47F6-7D47-808E-0D46D82B3A34}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>USS_data_Quarterly!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>USS_data_Quarterly!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>"£"#,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="&quot;£&quot;#,##0.0">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-6F48-A04B-A32B-0E6000ABD90D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260503215"/>
+        <c:axId val="260504895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260503215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.06"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Nominal gilt yield from USS FMP reports</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260504895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0000000000000001E-3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260504895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Self</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Sufficiency Deficit £bn </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>from USS FMP reports</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;£&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260503215"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Technical Provision Liabilities </a:t>
             </a:r>
             <a:r>
@@ -4336,7 +5918,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4765,7 +6347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5225,7 +6807,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5685,7 +7267,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6145,7 +7727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -12697,7 +14279,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monthly_FMP_march2023!$O$1</c:f>
+              <c:f>Monthly_FMP_march2023!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13096,7 +14678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Monthly_FMP_march2023!$O$2:$O$44</c:f>
+              <c:f>Monthly_FMP_march2023!$R$2:$R$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="43"/>
@@ -14714,7 +16296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monthly_FMP_march2023!$R$1</c:f>
+              <c:f>Monthly_FMP_march2023!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15113,7 +16695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Monthly_FMP_march2023!$R$2:$R$44</c:f>
+              <c:f>Monthly_FMP_march2023!$U$2:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="43"/>
@@ -15549,7 +17131,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>67% pre-ret &amp; 33% post-ret portfolio</a:t>
+              <a:t>33% pre-ret &amp; 67% post-ret portfolio</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
@@ -15661,7 +17243,7 @@
                   <c:y val="0.19557020777921155"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -15940,7 +17522,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monthly_FMP_march2023!$O$1</c:f>
+              <c:f>Monthly_FMP_march2023!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16190,7 +17772,7 @@
                   <c:y val="4.4735239512285044E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -16339,7 +17921,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Monthly_FMP_march2023!$L$2:$L$44</c:f>
+              <c:f>Monthly_FMP_march2023!$N$2:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="43"/>
@@ -16722,6 +18304,1232 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>USS FSC discount rate &amp; gilt yield</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>55% pre-ret &amp; 45% post-ret portfolio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, March 2020 - March 2023</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Monthly_FMP_march2023!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly monitoring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.01"/>
+            <c:backward val="0.01"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4235807860262015E-2"/>
+                  <c:y val="0.19557020777921155"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Monthly_FMP_march2023!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Monthly_FMP_march2023!$L$2:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2.6625000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4175000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4175000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2675000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5309999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4630000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5135000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4625000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2580000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4855000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7610000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8950000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7080000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7125000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6355000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5225000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8905E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5905000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4095000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5995000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9995000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1175000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3175000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9355000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8560000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6470000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0325000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8190000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.6054999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.9445000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7265000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0310000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9645000000000009E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB83-6E49-9CA5-CB53D7D21067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Monthly_FMP_march2023!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valuations yearly (full and interim)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="14"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6258187772925762E-2"/>
+                  <c:y val="-5.5497491638795984E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2020</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AB83-6E49-9CA5-CB53D7D21067}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6258187772925762E-2"/>
+                  <c:y val="-5.5497491638795984E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2021</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AB83-6E49-9CA5-CB53D7D21067}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6258187772925811E-2"/>
+                  <c:y val="-5.3407190635451504E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2022</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AB83-6E49-9CA5-CB53D7D21067}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6258187772925762E-2"/>
+                  <c:y val="-5.1316889632107024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2023</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AB83-6E49-9CA5-CB53D7D21067}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.01"/>
+            <c:backward val="0.01"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26255458515283842"/>
+                  <c:y val="4.4735239512285044E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Monthly_FMP_march2023!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Monthly_FMP_march2023!$O$2:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>2.6625000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.895E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.295E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AB83-6E49-9CA5-CB53D7D21067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="838266128"/>
+        <c:axId val="837852544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="838266128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.4999999999999998E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Gilt yield </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837852544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837852544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.08"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Future Service Costs discount rate (nominal)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838266128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -18337,1578 +21145,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Self</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2400" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>-Sufficiency Deficit &amp; gilt-yields nominal</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>for post-April 2022 benefits, Mar '22- Sep '23, USS monitoring data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="2400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USS_data_Quarterly!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SS Deficit £bn, quarterly</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.5040981405291571E-2"/>
-                  <c:y val="-5.1459163838829806E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Jun 20</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.9529277803439596E-2"/>
-                  <c:y val="-1.1710209863934373E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Sep 20</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.643252301511424E-2"/>
-                  <c:y val="-7.5261094455243687E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Dec 20</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.3226520286601335E-2"/>
-                  <c:y val="-4.7275063420419726E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Mar 21</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.685544252398196E-2"/>
-                  <c:y val="8.0339999341086474E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Jun 21</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.2257790763876207E-2"/>
-                  <c:y val="-1.7986360491549436E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Sep 21</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.2789958212931438E-2"/>
-                  <c:y val="5.3143346621421277E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Dec 21</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.184862124158082E-2"/>
-                  <c:y val="6.56956478766514E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Mar 22</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.5972113308483103E-2"/>
-                  <c:y val="1.1302342437320858E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Jun</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t> 22</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.0491132332878682E-2"/>
-                  <c:y val="-4.5183013211214706E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Sep 22</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-F01E-4C4E-B331-DAC9186D7ABB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4989741220955739E-2"/>
-                  <c:y val="-1.5894310282344414E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Dec 22</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8376-6E40-9A8E-6AB87DD23F0D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10869718877227669"/>
-                  <c:y val="2.5946693901756003E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Mar 23</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8376-6E40-9A8E-6AB87DD23F0D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.5896918069415947E-2"/>
-                  <c:y val="-1.1710209863934373E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Jun 23</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-2E8B-3642-83D8-D6451C3DC351}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.3243600348046639E-2"/>
-                  <c:y val="6.56956478766514E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>Sep</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t> 23</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B774-C844-B330-E372A3574CDD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
-            <c:backward val="1"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.7114651255223386E-2"/>
-                  <c:y val="-0.63619246861924683"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USS_data_Quarterly!$D$2:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USS_data_Quarterly!$G$2:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>"£"#,##0.00</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="1">
-                  <c:v>42.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6F48-A04B-A32B-0E6000ABD90D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>USS_data_Quarterly!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SS Deficit £bn, quarterly</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1090211728308859"/>
-                  <c:y val="5.2939412908114519E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:schemeClr val="tx2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>Mar 20 </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:schemeClr val="tx2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>Full Valuation</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-6F48-A04B-A32B-0E6000ABD90D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17510919422930252"/>
-                  <c:y val="-1.4006193786446228E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:schemeClr val="tx2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>Mar 23 </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200">
-                        <a:solidFill>
-                          <a:schemeClr val="tx2"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>Full valuation</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-47F6-7D47-808E-0D46D82B3A34}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>USS_data_Quarterly!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>USS_data_Quarterly!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>"£"#,##0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="&quot;£&quot;#,##0.0">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-6F48-A04B-A32B-0E6000ABD90D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="b"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="260503215"/>
-        <c:axId val="260504895"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="260503215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.06"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Nominal gilt yield from USS FMP reports</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1400">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="260504895"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.0000000000000001E-3"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="260504895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Self</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Sufficiency Deficit £bn </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>from USS FMP reports</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="&quot;£&quot;#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="260503215"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20150,6 +21386,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23606,6 +24882,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28263,6 +30055,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E5857673-EF5D-ED4A-84D4-D95F601C518A}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D2C6543-A8A0-3741-94AA-6D90B3275532}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
@@ -28275,7 +30080,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{ABAF07A8-84D0-EB41-A1EA-C1A719B9CA13}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
@@ -28359,12 +30164,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4E1895A3-DBFF-CC4E-9891-F701C6F2C8BF}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.59999389629810485"/>
-  </sheetPr>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6586034E-88A2-CB4F-A612-1C3340200ACB}">
+  <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="107" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28372,7 +30175,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E5857673-EF5D-ED4A-84D4-D95F601C518A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4E1895A3-DBFF-CC4E-9891-F701C6F2C8BF}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
@@ -28427,6 +30230,39 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D34779-D938-DC40-B48E-DA03EF9550B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9309100" cy="6070600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9394A280-7F78-954A-8B3C-2F0F70931AC4}"/>
             </a:ext>
           </a:extLst>
@@ -28450,7 +30286,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -28956,7 +30792,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -28989,7 +30825,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -32163,13 +33999,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309100" cy="6070600"/>
+    <xdr:ext cx="9317290" cy="6077009"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7D2B4B-EA08-F536-51E6-1C8A56368F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3001781E-F086-29BB-BF3F-E4D183A7F25C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32202,7 +34038,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D34779-D938-DC40-B48E-DA03EF9550B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7D2B4B-EA08-F536-51E6-1C8A56368F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33396,27 +35232,27 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="6" width="10.83203125" style="10"/>
-    <col min="7" max="13" width="10.83203125" style="65"/>
-    <col min="14" max="14" width="10.83203125" style="70"/>
-    <col min="15" max="16" width="10.83203125" style="65"/>
+    <col min="7" max="16" width="10.83203125" style="65"/>
     <col min="17" max="17" width="10.83203125" style="70"/>
-    <col min="18" max="18" width="10.83203125" style="65"/>
-    <col min="19" max="20" width="10.83203125" style="70"/>
-    <col min="21" max="24" width="10.83203125" style="65"/>
-    <col min="26" max="29" width="10.83203125" style="51"/>
-    <col min="30" max="32" width="10.83203125" style="70"/>
+    <col min="18" max="19" width="10.83203125" style="65"/>
+    <col min="20" max="20" width="10.83203125" style="70"/>
+    <col min="21" max="21" width="10.83203125" style="65"/>
+    <col min="22" max="23" width="10.83203125" style="70"/>
+    <col min="24" max="27" width="10.83203125" style="65"/>
+    <col min="29" max="32" width="10.83203125" style="51"/>
+    <col min="33" max="35" width="10.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="38" customFormat="1" ht="112">
+    <row r="1" spans="1:45" s="38" customFormat="1" ht="112">
       <c r="B1" s="66" t="s">
         <v>57</v>
       </c>
@@ -33447,103 +35283,112 @@
       <c r="K1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="64">
+      <c r="L1" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="64">
         <v>0.67</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="N1" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="79" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="U1" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="X1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="75" t="s">
+      <c r="Y1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="71" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="73" t="str">
-        <f t="shared" ref="Z1:AC2" si="0">B1</f>
+      <c r="AC1" s="73" t="str">
+        <f>B1</f>
         <v>Nom Gilts (single equiv)</v>
       </c>
-      <c r="AA1" s="73" t="str">
-        <f t="shared" si="0"/>
+      <c r="AD1" s="73" t="str">
+        <f>C1</f>
         <v>FBB expected pre-retirement return relative to 30 yr nom gilts</v>
       </c>
-      <c r="AB1" s="73" t="str">
-        <f t="shared" si="0"/>
+      <c r="AE1" s="73" t="str">
+        <f>D1</f>
         <v>Discount rates: Pre- retirement (Gilts+)</v>
       </c>
-      <c r="AC1" s="73" t="str">
-        <f t="shared" si="0"/>
+      <c r="AF1" s="73" t="str">
+        <f>E1</f>
         <v>CPI capped at 2.5% (single equiv)</v>
       </c>
-      <c r="AD1" s="74" t="str">
-        <f t="shared" ref="AD1" si="1">G1</f>
+      <c r="AG1" s="74" t="str">
+        <f>G1</f>
         <v>% SE gilts</v>
       </c>
-      <c r="AE1" s="75" t="s">
+      <c r="AH1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="75" t="s">
+      <c r="AI1" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72" t="str">
-        <f t="shared" ref="AH1:AH2" si="2">M1</f>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72" t="str">
+        <f t="shared" ref="AK1:AK2" si="0">P1</f>
         <v>SE gilt yield Valuations (interim and full)</v>
       </c>
-      <c r="AI1" s="72" t="str">
-        <f t="shared" ref="AI1:AI2" si="3">N1</f>
+      <c r="AL1" s="72" t="str">
+        <f t="shared" ref="AL1:AL2" si="1">Q1</f>
         <v>Valuations</v>
       </c>
-      <c r="AJ1" s="72" t="str">
-        <f t="shared" ref="AJ1:AJ2" si="4">O1</f>
+      <c r="AM1" s="72" t="str">
+        <f t="shared" ref="AM1:AM2" si="2">R1</f>
         <v>Valuations yearly (full and interim)</v>
       </c>
-      <c r="AK1" s="52" t="s">
+      <c r="AN1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="52" t="s">
+      <c r="AO1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="52" t="s">
+      <c r="AP1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="52" t="s">
+      <c r="AQ1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="52" t="s">
+      <c r="AR1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AP1" s="38">
+      <c r="AS1" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="14">
+    <row r="2" spans="1:45" ht="14">
       <c r="A2" s="67">
         <v>43891</v>
       </c>
@@ -33579,101 +35424,112 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="K2" s="65">
-        <f>J2*$L$1+I2*(1-$L$1)</f>
+        <f>J2*$M$1+I2*(1-$M$1)</f>
         <v>2.2775E-2</v>
       </c>
       <c r="L2" s="65">
-        <f>R2*$L$1+O2*(1-$L$1)</f>
+        <f>J2*$M$2+I2*(1-$M$2)</f>
+        <v>2.6625000000000003E-2</v>
+      </c>
+      <c r="M2" s="65">
+        <v>0.45</v>
+      </c>
+      <c r="N2" s="65">
+        <f>U2*$M$1+R2*(1-$M$1)</f>
         <v>2.2775E-2</v>
       </c>
-      <c r="M2" s="65">
+      <c r="O2" s="65">
+        <f>U2*$M$2+R2*(1-$M$2)</f>
+        <v>2.6625000000000003E-2</v>
+      </c>
+      <c r="P2" s="65">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="70">
+      <c r="Q2" s="70">
         <v>2.75E-2</v>
       </c>
-      <c r="O2" s="65">
-        <f>N2+M2</f>
+      <c r="R2" s="65">
+        <f>Q2+P2</f>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="Q2" s="70">
+      <c r="T2" s="70">
         <v>0.01</v>
       </c>
-      <c r="R2" s="65">
-        <f>Q2+M2</f>
+      <c r="U2" s="65">
+        <f>T2+P2</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="S2" s="70">
+      <c r="V2" s="70">
         <v>5.79E-2</v>
       </c>
-      <c r="T2" s="70">
+      <c r="W2" s="70">
         <v>1.55E-2</v>
       </c>
-      <c r="U2" s="65">
-        <f>S2+M2</f>
+      <c r="X2" s="65">
+        <f>V2+P2</f>
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="V2" s="65">
-        <f>T2+M2</f>
+      <c r="Y2" s="65">
+        <f>W2+P2</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="AB2" s="6">
         <f>A2</f>
         <v>43891</v>
       </c>
-      <c r="Z2" s="51">
-        <f t="shared" si="0"/>
+      <c r="AC2" s="51">
+        <f>B2</f>
         <v>0.7</v>
       </c>
-      <c r="AA2" s="51">
-        <f t="shared" si="0"/>
+      <c r="AD2" s="51">
+        <f>C2</f>
         <v>5.28</v>
       </c>
-      <c r="AB2" s="51">
-        <f t="shared" si="0"/>
+      <c r="AE2" s="51">
+        <f>D2</f>
         <v>2.75</v>
       </c>
-      <c r="AC2" s="51">
-        <f t="shared" si="0"/>
+      <c r="AF2" s="51">
+        <f>E2</f>
         <v>1.7</v>
       </c>
-      <c r="AD2" s="70">
+      <c r="AG2" s="70">
         <f>G2</f>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="AE2" s="70">
+      <c r="AH2" s="70">
         <f>H2</f>
         <v>5.9800000000000006E-2</v>
       </c>
-      <c r="AF2" s="70">
+      <c r="AI2" s="70">
         <f>I2</f>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70">
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AL2" s="70">
+        <f t="shared" si="1"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="AM2" s="70">
         <f t="shared" si="2"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="AI2" s="70">
-        <f t="shared" si="3"/>
-        <v>2.75E-2</v>
-      </c>
-      <c r="AJ2" s="70">
-        <f t="shared" si="4"/>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AM2" s="76">
+      <c r="AP2" s="76">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AN2" s="65">
+      <c r="AQ2" s="65">
         <v>0.22</v>
       </c>
-      <c r="AO2">
-        <f>AN2*$AP$1</f>
+      <c r="AR2">
+        <f>AQ2*$AS$1</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:45">
       <c r="A3" s="6">
         <v>43922</v>
       </c>
@@ -33693,76 +35549,80 @@
         <v>0.9</v>
       </c>
       <c r="G3" s="65">
-        <f t="shared" ref="G3:G38" si="5">B3/100</f>
+        <f t="shared" ref="G3:G38" si="3">B3/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="65">
-        <f t="shared" ref="H3:H38" si="6">(B3+C3)/100</f>
+        <f t="shared" ref="H3:H38" si="4">(B3+C3)/100</f>
         <v>5.7300000000000004E-2</v>
       </c>
       <c r="I3" s="65">
-        <f t="shared" ref="I3:I38" si="7">(B3+D3)/100</f>
+        <f t="shared" ref="I3:I38" si="5">(B3+D3)/100</f>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="J3" s="65">
-        <f t="shared" ref="J3:J38" si="8">(B3+F3)/100</f>
+        <f t="shared" ref="J3:J38" si="6">(B3+F3)/100</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="K3" s="65">
-        <f t="shared" ref="K3:K38" si="9">J3*$L$1+I3*(1-$L$1)</f>
+        <f t="shared" ref="K3:K38" si="7">J3*$M$1+I3*(1-$M$1)</f>
         <v>2.0104999999999998E-2</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="L3" s="65">
+        <f t="shared" ref="L3:L38" si="8">J3*$M$2+I3*(1-$M$2)</f>
+        <v>2.4175000000000002E-2</v>
+      </c>
+      <c r="AB3" s="6">
         <f>A5</f>
         <v>43983</v>
       </c>
-      <c r="Z3" s="51">
+      <c r="AC3" s="51">
         <f>B5</f>
         <v>0.6</v>
       </c>
-      <c r="AA3" s="51">
+      <c r="AD3" s="51">
         <f>C5</f>
         <v>4.8099999999999996</v>
       </c>
-      <c r="AB3" s="51">
+      <c r="AE3" s="51">
         <f>D5</f>
         <v>2.65</v>
       </c>
-      <c r="AC3" s="51">
+      <c r="AF3" s="51">
         <f>E5</f>
         <v>1.8</v>
       </c>
-      <c r="AD3" s="70">
+      <c r="AG3" s="70">
         <f>G5</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AE3" s="70">
+      <c r="AH3" s="70">
         <f>H5</f>
         <v>5.4099999999999995E-2</v>
       </c>
-      <c r="AF3" s="70">
+      <c r="AI3" s="70">
         <f>I5</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
       <c r="AJ3" s="70"/>
-      <c r="AL3">
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AO3">
         <v>3.7</v>
       </c>
-      <c r="AM3" s="76">
+      <c r="AP3" s="76">
         <v>6.2E-2</v>
       </c>
-      <c r="AN3" s="65">
+      <c r="AQ3" s="65">
         <v>0.20599999999999999</v>
       </c>
-      <c r="AO3">
-        <f t="shared" ref="AO3:AO6" si="10">AN3*$AP$1</f>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR6" si="9">AQ3*$AS$1</f>
         <v>2.06</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:45">
       <c r="A4" s="6">
         <v>43952</v>
       </c>
@@ -33782,73 +35642,77 @@
         <v>0.86</v>
       </c>
       <c r="G4" s="65">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="65">
+        <f t="shared" si="4"/>
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="I4" s="65">
         <f t="shared" si="5"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="65">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J4" s="65">
         <f t="shared" si="6"/>
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="I4" s="65">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="K4" s="65">
         <f t="shared" si="7"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="J4" s="65">
+        <v>1.9671999999999999E-2</v>
+      </c>
+      <c r="L4" s="65">
         <f t="shared" si="8"/>
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="K4" s="65">
-        <f t="shared" si="9"/>
-        <v>1.9671999999999999E-2</v>
-      </c>
-      <c r="Y4" s="6">
+        <v>2.3720000000000001E-2</v>
+      </c>
+      <c r="AB4" s="6">
         <f>A8</f>
         <v>44075</v>
       </c>
-      <c r="Z4" s="51">
+      <c r="AC4" s="51">
         <f>B8</f>
         <v>0.7</v>
       </c>
-      <c r="AA4" s="51">
+      <c r="AD4" s="51">
         <f>C8</f>
         <v>4.62</v>
       </c>
-      <c r="AB4" s="51">
+      <c r="AE4" s="51">
         <f>D8</f>
         <v>2.6</v>
       </c>
-      <c r="AC4" s="51">
+      <c r="AF4" s="51">
         <f>E8</f>
         <v>1.8</v>
       </c>
-      <c r="AD4" s="70">
+      <c r="AG4" s="70">
         <f>G8</f>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="AE4" s="70">
+      <c r="AH4" s="70">
         <f>H8</f>
         <v>5.3200000000000004E-2</v>
       </c>
-      <c r="AF4" s="70">
+      <c r="AI4" s="70">
         <f>I8</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
       <c r="AJ4" s="70"/>
-      <c r="AM4" s="76">
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AP4" s="76">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AN4" s="65">
+      <c r="AQ4" s="65">
         <v>0.192</v>
       </c>
-      <c r="AO4">
-        <f t="shared" si="10"/>
+      <c r="AR4">
+        <f t="shared" si="9"/>
         <v>1.92</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="14">
+    <row r="5" spans="1:45" ht="14">
       <c r="A5" s="67">
         <v>43983</v>
       </c>
@@ -33868,63 +35732,67 @@
         <v>0.8</v>
       </c>
       <c r="G5" s="65">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="65">
+        <f t="shared" si="4"/>
+        <v>5.4099999999999995E-2</v>
+      </c>
+      <c r="I5" s="65">
         <f t="shared" si="5"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="65">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="J5" s="65">
         <f t="shared" si="6"/>
-        <v>5.4099999999999995E-2</v>
-      </c>
-      <c r="I5" s="65">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="K5" s="65">
         <f t="shared" si="7"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="J5" s="65">
+        <v>2.0104999999999998E-2</v>
+      </c>
+      <c r="L5" s="65">
         <f t="shared" si="8"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="K5" s="65">
-        <f t="shared" si="9"/>
-        <v>2.0104999999999998E-2</v>
-      </c>
-      <c r="Y5" s="6">
+        <v>2.4175000000000002E-2</v>
+      </c>
+      <c r="AB5" s="6">
         <f>A11</f>
         <v>44166</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="AC5" s="51">
         <f>B11</f>
         <v>0.6</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AD5" s="51">
         <f>C11</f>
         <v>4.29</v>
       </c>
-      <c r="AB5" s="51">
+      <c r="AE5" s="51">
         <f>D11</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="AC5" s="51">
+      <c r="AF5" s="51">
         <f>E11</f>
         <v>1.8</v>
       </c>
-      <c r="AD5" s="70">
+      <c r="AG5" s="70">
         <f>G11</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AH5" s="70">
         <f>H11</f>
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="AF5" s="70">
+      <c r="AI5" s="70">
         <f>I11</f>
         <v>3.0500000000000003E-2</v>
       </c>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
       <c r="AJ5" s="70"/>
-    </row>
-    <row r="6" spans="1:42">
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6" s="6">
         <v>44013</v>
       </c>
@@ -33944,86 +35812,90 @@
         <v>0.75</v>
       </c>
       <c r="G6" s="65">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="65">
+        <f t="shared" si="4"/>
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I6" s="65">
         <f t="shared" si="5"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="65">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J6" s="65">
         <f t="shared" si="6"/>
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="I6" s="65">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K6" s="65">
         <f t="shared" si="7"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="J6" s="65">
+        <v>1.8605E-2</v>
+      </c>
+      <c r="L6" s="65">
         <f t="shared" si="8"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K6" s="65">
-        <f t="shared" si="9"/>
-        <v>1.8605E-2</v>
-      </c>
-      <c r="Y6" s="6">
+        <v>2.2675000000000004E-2</v>
+      </c>
+      <c r="AB6" s="6">
         <f>A14</f>
         <v>44256</v>
       </c>
-      <c r="Z6" s="51">
+      <c r="AC6" s="51">
         <f>B14</f>
         <v>1.3</v>
       </c>
-      <c r="AA6" s="51">
+      <c r="AD6" s="51">
         <f>C14</f>
         <v>4.17</v>
       </c>
-      <c r="AB6" s="51">
+      <c r="AE6" s="51">
         <f>D14</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="AC6" s="51">
+      <c r="AF6" s="51">
         <f>E14</f>
         <v>1.9</v>
       </c>
-      <c r="AD6" s="70">
+      <c r="AG6" s="70">
         <f>G14</f>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="AE6" s="70">
+      <c r="AH6" s="70">
         <f>H14</f>
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="AF6" s="70">
+      <c r="AI6" s="70">
         <f>I14</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70">
-        <f t="shared" ref="AH6" si="11">M14</f>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70">
+        <f t="shared" ref="AK6" si="10">P14</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AI6" s="70">
-        <f t="shared" ref="AI6" si="12">N14</f>
+      <c r="AL6" s="70">
+        <f t="shared" ref="AL6" si="11">Q14</f>
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="AJ6" s="70">
-        <f t="shared" ref="AJ6" si="13">O14</f>
+      <c r="AM6" s="70">
+        <f t="shared" ref="AM6" si="12">R14</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AL6">
+      <c r="AO6">
         <v>1.7</v>
       </c>
-      <c r="AM6" s="63">
+      <c r="AP6" s="63">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AN6" s="65">
-        <f>AN3+1.4*(AM3-AM6)</f>
+      <c r="AQ6" s="65">
+        <f>AQ3+1.4*(AP3-AP6)</f>
         <v>0.23399999999999999</v>
       </c>
-      <c r="AO6">
-        <f t="shared" si="10"/>
+      <c r="AR6">
+        <f t="shared" si="9"/>
         <v>2.34</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:45">
       <c r="A7" s="6">
         <v>44044</v>
       </c>
@@ -34043,63 +35915,67 @@
         <v>0.73</v>
       </c>
       <c r="G7" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H7" s="65">
+        <f t="shared" si="4"/>
+        <v>5.21E-2</v>
+      </c>
+      <c r="I7" s="65">
         <f t="shared" si="5"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H7" s="65">
+        <v>3.3499999999999995E-2</v>
+      </c>
+      <c r="J7" s="65">
         <f t="shared" si="6"/>
-        <v>5.21E-2</v>
-      </c>
-      <c r="I7" s="65">
+        <v>1.5300000000000001E-2</v>
+      </c>
+      <c r="K7" s="65">
         <f t="shared" si="7"/>
-        <v>3.3499999999999995E-2</v>
-      </c>
-      <c r="J7" s="65">
+        <v>2.1305999999999999E-2</v>
+      </c>
+      <c r="L7" s="65">
         <f t="shared" si="8"/>
-        <v>1.5300000000000001E-2</v>
-      </c>
-      <c r="K7" s="65">
-        <f t="shared" si="9"/>
-        <v>2.1305999999999999E-2</v>
-      </c>
-      <c r="Y7" s="6">
+        <v>2.5309999999999999E-2</v>
+      </c>
+      <c r="AB7" s="6">
         <f>A17</f>
         <v>44348</v>
       </c>
-      <c r="Z7" s="51">
+      <c r="AC7" s="51">
         <f>B17</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA7" s="51">
+      <c r="AD7" s="51">
         <f>C17</f>
         <v>4.22</v>
       </c>
-      <c r="AB7" s="51">
+      <c r="AE7" s="51">
         <f>D17</f>
         <v>2.35</v>
       </c>
-      <c r="AC7" s="51">
+      <c r="AF7" s="51">
         <f>E17</f>
         <v>1.9</v>
       </c>
-      <c r="AD7" s="70">
+      <c r="AG7" s="70">
         <f>G17</f>
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="AE7" s="70">
+      <c r="AH7" s="70">
         <f>H17</f>
         <v>5.3200000000000004E-2</v>
       </c>
-      <c r="AF7" s="70">
+      <c r="AI7" s="70">
         <f>I17</f>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
       <c r="AJ7" s="70"/>
-    </row>
-    <row r="8" spans="1:42" ht="14">
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+    </row>
+    <row r="8" spans="1:45" ht="14">
       <c r="A8" s="67">
         <v>44075</v>
       </c>
@@ -34119,63 +35995,67 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="65">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="H8" s="65">
+        <f t="shared" si="4"/>
+        <v>5.3200000000000004E-2</v>
+      </c>
+      <c r="I8" s="65">
         <f t="shared" si="5"/>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="H8" s="65">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J8" s="65">
         <f t="shared" si="6"/>
-        <v>5.3200000000000004E-2</v>
-      </c>
-      <c r="I8" s="65">
+        <v>1.44E-2</v>
+      </c>
+      <c r="K8" s="65">
         <f t="shared" si="7"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J8" s="65">
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="L8" s="65">
         <f t="shared" si="8"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="K8" s="65">
-        <f t="shared" si="9"/>
-        <v>2.0538000000000001E-2</v>
-      </c>
-      <c r="Y8" s="6">
+        <v>2.4630000000000003E-2</v>
+      </c>
+      <c r="AB8" s="6">
         <f>A20</f>
         <v>44440</v>
       </c>
-      <c r="Z8" s="51">
+      <c r="AC8" s="51">
         <f>B20</f>
         <v>1.3</v>
       </c>
-      <c r="AA8" s="51">
+      <c r="AD8" s="51">
         <f>C20</f>
         <v>3.6</v>
       </c>
-      <c r="AB8" s="51">
+      <c r="AE8" s="51">
         <f>D20</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="AC8" s="51">
+      <c r="AF8" s="51">
         <f>E20</f>
         <v>2</v>
       </c>
-      <c r="AD8" s="70">
+      <c r="AG8" s="70">
         <f>G20</f>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="AE8" s="70">
+      <c r="AH8" s="70">
         <f>H20</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AF8" s="70">
+      <c r="AI8" s="70">
         <f>I20</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
       <c r="AJ8" s="70"/>
-    </row>
-    <row r="9" spans="1:42">
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9" s="6">
         <v>44105</v>
       </c>
@@ -34195,63 +36075,67 @@
         <v>0.73</v>
       </c>
       <c r="G9" s="65">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="H9" s="65">
+        <f t="shared" si="4"/>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="I9" s="65">
         <f t="shared" si="5"/>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="H9" s="65">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J9" s="65">
         <f t="shared" si="6"/>
-        <v>5.6000000000000008E-2</v>
-      </c>
-      <c r="I9" s="65">
+        <v>1.43E-2</v>
+      </c>
+      <c r="K9" s="65">
         <f t="shared" si="7"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J9" s="65">
+        <v>2.0801E-2</v>
+      </c>
+      <c r="L9" s="65">
         <f t="shared" si="8"/>
-        <v>1.43E-2</v>
-      </c>
-      <c r="K9" s="65">
-        <f t="shared" si="9"/>
-        <v>2.0801E-2</v>
-      </c>
-      <c r="Y9" s="6">
+        <v>2.5135000000000001E-2</v>
+      </c>
+      <c r="AB9" s="6">
         <f>A23</f>
         <v>44531</v>
       </c>
-      <c r="Z9" s="51">
+      <c r="AC9" s="51">
         <f>B23</f>
         <v>1</v>
       </c>
-      <c r="AA9" s="51">
+      <c r="AD9" s="51">
         <f>C23</f>
         <v>3.72</v>
       </c>
-      <c r="AB9" s="51">
+      <c r="AE9" s="51">
         <f>D23</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="AC9" s="51">
+      <c r="AF9" s="51">
         <f>E23</f>
         <v>1.9</v>
       </c>
-      <c r="AD9" s="70">
+      <c r="AG9" s="70">
         <f>G23</f>
         <v>0.01</v>
       </c>
-      <c r="AE9" s="70">
+      <c r="AH9" s="70">
         <f>H23</f>
         <v>4.7200000000000006E-2</v>
       </c>
-      <c r="AF9" s="70">
+      <c r="AI9" s="70">
         <f>I23</f>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
       <c r="AJ9" s="70"/>
-    </row>
-    <row r="10" spans="1:42">
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="70"/>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10" s="6">
         <v>44136</v>
       </c>
@@ -34271,72 +36155,76 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H10" s="65">
+        <f t="shared" si="4"/>
+        <v>5.16E-2</v>
+      </c>
+      <c r="I10" s="65">
         <f t="shared" si="5"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H10" s="65">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="J10" s="65">
         <f t="shared" si="6"/>
-        <v>5.16E-2</v>
-      </c>
-      <c r="I10" s="65">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K10" s="65">
         <f t="shared" si="7"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="J10" s="65">
+        <v>2.0774999999999998E-2</v>
+      </c>
+      <c r="L10" s="65">
         <f t="shared" si="8"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K10" s="65">
-        <f t="shared" si="9"/>
-        <v>2.0774999999999998E-2</v>
-      </c>
-      <c r="Y10" s="6">
+        <v>2.4625000000000001E-2</v>
+      </c>
+      <c r="AB10" s="6">
         <f>A26</f>
         <v>44621</v>
       </c>
-      <c r="Z10" s="51">
+      <c r="AC10" s="51">
         <f>B26</f>
         <v>1.7</v>
       </c>
-      <c r="AA10" s="51">
+      <c r="AD10" s="51">
         <f>C26</f>
         <v>4.51</v>
       </c>
-      <c r="AB10" s="51">
+      <c r="AE10" s="51">
         <f>D26</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="AC10" s="51">
+      <c r="AF10" s="51">
         <f>E26</f>
         <v>2.1</v>
       </c>
-      <c r="AD10" s="70">
+      <c r="AG10" s="70">
         <f>G26</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AE10" s="70">
+      <c r="AH10" s="70">
         <f>H26</f>
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="AF10" s="70">
+      <c r="AI10" s="70">
         <f>I26</f>
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="70">
-        <f t="shared" ref="AH10" si="14">M26</f>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70">
+        <f t="shared" ref="AK10" si="13">P26</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AI10" s="70">
-        <f t="shared" ref="AI10" si="15">N26</f>
+      <c r="AL10" s="70">
+        <f t="shared" ref="AL10" si="14">Q26</f>
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="AJ10" s="70">
-        <f t="shared" ref="AJ10" si="16">O26</f>
+      <c r="AM10" s="70">
+        <f t="shared" ref="AM10" si="15">R26</f>
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="14">
+    <row r="11" spans="1:45" ht="14">
       <c r="A11" s="67">
         <v>44166</v>
       </c>
@@ -34356,63 +36244,67 @@
         <v>0.69</v>
       </c>
       <c r="G11" s="65">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="65">
+        <f t="shared" si="4"/>
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="I11" s="65">
         <f t="shared" si="5"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="65">
+        <v>3.0500000000000003E-2</v>
+      </c>
+      <c r="J11" s="65">
         <f t="shared" si="6"/>
-        <v>4.8899999999999999E-2</v>
-      </c>
-      <c r="I11" s="65">
+        <v>1.29E-2</v>
+      </c>
+      <c r="K11" s="65">
         <f t="shared" si="7"/>
-        <v>3.0500000000000003E-2</v>
-      </c>
-      <c r="J11" s="65">
+        <v>1.8708000000000002E-2</v>
+      </c>
+      <c r="L11" s="65">
         <f t="shared" si="8"/>
-        <v>1.29E-2</v>
-      </c>
-      <c r="K11" s="65">
-        <f t="shared" si="9"/>
-        <v>1.8708000000000002E-2</v>
-      </c>
-      <c r="Y11" s="6">
+        <v>2.2580000000000003E-2</v>
+      </c>
+      <c r="AB11" s="6">
         <f>A29</f>
         <v>44713</v>
       </c>
-      <c r="Z11" s="51">
+      <c r="AC11" s="51">
         <f>B29</f>
         <v>2.5</v>
       </c>
-      <c r="AA11" s="51">
+      <c r="AD11" s="51">
         <f>C29</f>
         <v>4.17</v>
       </c>
-      <c r="AB11" s="51">
+      <c r="AE11" s="51">
         <f>D29</f>
         <v>1.95</v>
       </c>
-      <c r="AC11" s="51">
+      <c r="AF11" s="51">
         <f>E29</f>
         <v>1.9</v>
       </c>
-      <c r="AD11" s="70">
+      <c r="AG11" s="70">
         <f>G29</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE11" s="70">
+      <c r="AH11" s="70">
         <f>H29</f>
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="AF11" s="70">
+      <c r="AI11" s="70">
         <f>I29</f>
         <v>4.4500000000000005E-2</v>
       </c>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="70"/>
       <c r="AJ11" s="70"/>
-    </row>
-    <row r="12" spans="1:42">
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12" s="6">
         <v>44197</v>
       </c>
@@ -34432,63 +36324,67 @@
         <v>0.69</v>
       </c>
       <c r="G12" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H12" s="65">
+        <f t="shared" si="4"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="I12" s="65">
         <f t="shared" si="5"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H12" s="65">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J12" s="65">
         <f t="shared" si="6"/>
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="I12" s="65">
+        <v>1.49E-2</v>
+      </c>
+      <c r="K12" s="65">
         <f t="shared" si="7"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J12" s="65">
+        <v>2.0872999999999999E-2</v>
+      </c>
+      <c r="L12" s="65">
         <f t="shared" si="8"/>
-        <v>1.49E-2</v>
-      </c>
-      <c r="K12" s="65">
-        <f t="shared" si="9"/>
-        <v>2.0872999999999999E-2</v>
-      </c>
-      <c r="Y12" s="6">
+        <v>2.4855000000000002E-2</v>
+      </c>
+      <c r="AB12" s="6">
         <f>A32</f>
         <v>44805</v>
       </c>
-      <c r="Z12" s="51">
+      <c r="AC12" s="51">
         <f>B32</f>
         <v>3.7</v>
       </c>
-      <c r="AA12" s="51">
+      <c r="AD12" s="51">
         <f>C32</f>
         <v>3.39</v>
       </c>
-      <c r="AB12" s="51">
+      <c r="AE12" s="51">
         <f>D32</f>
         <v>1.85</v>
       </c>
-      <c r="AC12" s="51">
+      <c r="AF12" s="51">
         <f>E32</f>
         <v>2</v>
       </c>
-      <c r="AD12" s="70">
+      <c r="AG12" s="70">
         <f>G32</f>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="AE12" s="70">
+      <c r="AH12" s="70">
         <f>H32</f>
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="AF12" s="70">
+      <c r="AI12" s="70">
         <f>I32</f>
         <v>5.5500000000000008E-2</v>
       </c>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70"/>
       <c r="AJ12" s="70"/>
-    </row>
-    <row r="13" spans="1:42">
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="70"/>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13" s="6">
         <v>44228</v>
       </c>
@@ -34508,63 +36404,67 @@
         <v>0.68</v>
       </c>
       <c r="G13" s="65">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="H13" s="65">
+        <f t="shared" si="4"/>
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="I13" s="65">
         <f t="shared" si="5"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="H13" s="65">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J13" s="65">
         <f t="shared" si="6"/>
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="I13" s="65">
+        <v>1.9799999999999998E-2</v>
+      </c>
+      <c r="K13" s="65">
         <f t="shared" si="7"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J13" s="65">
+        <v>2.4486000000000001E-2</v>
+      </c>
+      <c r="L13" s="65">
         <f t="shared" si="8"/>
-        <v>1.9799999999999998E-2</v>
-      </c>
-      <c r="K13" s="65">
-        <f t="shared" si="9"/>
-        <v>2.4486000000000001E-2</v>
-      </c>
-      <c r="Y13" s="6">
+        <v>2.7610000000000003E-2</v>
+      </c>
+      <c r="AB13" s="6">
         <f>A35</f>
         <v>44896</v>
       </c>
-      <c r="Z13" s="51">
+      <c r="AC13" s="51">
         <f>B35</f>
         <v>3.9</v>
       </c>
-      <c r="AA13" s="51">
+      <c r="AD13" s="51">
         <f>C35</f>
         <v>3.21</v>
       </c>
-      <c r="AB13" s="51">
+      <c r="AE13" s="51">
         <f>D35</f>
         <v>1.4</v>
       </c>
-      <c r="AC13" s="51">
+      <c r="AF13" s="51">
         <f>E35</f>
         <v>1.9</v>
       </c>
-      <c r="AD13" s="70">
+      <c r="AG13" s="70">
         <f>G35</f>
         <v>3.9E-2</v>
       </c>
-      <c r="AE13" s="70">
+      <c r="AH13" s="70">
         <f>H35</f>
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="AF13" s="70">
+      <c r="AI13" s="70">
         <f>I35</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
       <c r="AJ13" s="70"/>
-    </row>
-    <row r="14" spans="1:42" s="87" customFormat="1" ht="14">
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+    </row>
+    <row r="14" spans="1:45" s="87" customFormat="1" ht="14">
       <c r="A14" s="68">
         <v>44256</v>
       </c>
@@ -34584,110 +36484,119 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G14" s="83">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="H14" s="83">
+        <f t="shared" si="4"/>
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="I14" s="83">
         <f t="shared" si="5"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="H14" s="83">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="J14" s="83">
         <f t="shared" si="6"/>
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="I14" s="83">
+        <v>1.8500000000000003E-2</v>
+      </c>
+      <c r="K14" s="65">
         <f t="shared" si="7"/>
+        <v>2.477E-2</v>
+      </c>
+      <c r="L14" s="65">
+        <f t="shared" si="8"/>
+        <v>2.8950000000000004E-2</v>
+      </c>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65">
+        <f>U14*$M$1+R14*(1-$M$1)</f>
+        <v>2.477E-2</v>
+      </c>
+      <c r="O14" s="65">
+        <f>U14*$M$2+R14*(1-$M$2)</f>
+        <v>2.895E-2</v>
+      </c>
+      <c r="P14" s="83">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q14" s="84">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="R14" s="83">
+        <f>Q14+P14</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="J14" s="83">
-        <f t="shared" si="8"/>
-        <v>1.8500000000000003E-2</v>
-      </c>
-      <c r="K14" s="65">
-        <f t="shared" si="9"/>
-        <v>2.477E-2</v>
-      </c>
-      <c r="L14" s="65">
-        <f>R14*$L$1+O14*(1-$L$1)</f>
-        <v>2.477E-2</v>
-      </c>
-      <c r="M14" s="83">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N14" s="84">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="O14" s="83">
-        <f>N14+M14</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="84">
+      <c r="S14" s="83"/>
+      <c r="T14" s="84">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="R14" s="83">
-        <f t="shared" ref="R14:R38" si="17">Q14+M14</f>
+      <c r="U14" s="83">
+        <f t="shared" ref="U14:U38" si="16">T14+P14</f>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="S14" s="84">
+      <c r="V14" s="84">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="T14" s="84">
+      <c r="W14" s="84">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="U14" s="83">
-        <f>S14+M14</f>
+      <c r="X14" s="83">
+        <f>V14+P14</f>
         <v>5.9899999999999995E-2</v>
       </c>
-      <c r="V14" s="83">
-        <f>T14+M14</f>
+      <c r="Y14" s="83">
+        <f>W14+P14</f>
         <v>2.29E-2</v>
       </c>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="85">
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="85">
         <f>A38</f>
         <v>44986</v>
       </c>
-      <c r="Z14" s="86">
+      <c r="AC14" s="86">
         <f>B38</f>
         <v>3.7</v>
       </c>
-      <c r="AA14" s="86">
+      <c r="AD14" s="86">
         <f>C38</f>
         <v>4</v>
       </c>
-      <c r="AB14" s="86">
+      <c r="AE14" s="86">
         <f>D38</f>
         <v>1.8</v>
       </c>
-      <c r="AC14" s="86">
+      <c r="AF14" s="86">
         <f>E38</f>
         <v>1.9</v>
       </c>
-      <c r="AD14" s="84">
+      <c r="AG14" s="84">
         <f>G38</f>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="AE14" s="84">
+      <c r="AH14" s="84">
         <f>H38</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AF14" s="84">
+      <c r="AI14" s="84">
         <f>I38</f>
         <v>5.5E-2</v>
       </c>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84">
-        <f t="shared" ref="AH14" si="18">M38</f>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84">
+        <f t="shared" ref="AK14" si="17">P38</f>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AI14" s="84">
-        <f t="shared" ref="AI14" si="19">N38</f>
+      <c r="AL14" s="84">
+        <f t="shared" ref="AL14" si="18">Q38</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ14" s="84">
-        <f t="shared" ref="AJ14" si="20">O38</f>
+      <c r="AM14" s="84">
+        <f t="shared" ref="AM14" si="19">R38</f>
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:45">
       <c r="A15" s="6">
         <v>44287</v>
       </c>
@@ -34707,131 +36616,139 @@
         <v>0.54</v>
       </c>
       <c r="G15" s="65">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H15" s="65">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000008E-2</v>
+      </c>
+      <c r="I15" s="65">
         <f t="shared" si="5"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="H15" s="65">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J15" s="65">
         <f t="shared" si="6"/>
-        <v>5.3100000000000008E-2</v>
-      </c>
-      <c r="I15" s="65">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="K15" s="65">
         <f t="shared" si="7"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J15" s="65">
+        <v>2.3207999999999999E-2</v>
+      </c>
+      <c r="L15" s="65">
         <f t="shared" si="8"/>
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="K15" s="65">
-        <f t="shared" si="9"/>
-        <v>2.3207999999999999E-2</v>
-      </c>
-      <c r="Y15" s="6">
+        <v>2.7080000000000003E-2</v>
+      </c>
+      <c r="AB15" s="6">
         <f>A41</f>
         <v>45078</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AC15" s="10">
         <f>B41</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AD15" s="10">
         <f>C41</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AE15" s="10">
         <f>D41</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AF15" s="10">
         <f>E41</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="70">
-        <f t="shared" ref="AD15:AF15" si="21">G41</f>
+      <c r="AG15" s="70">
+        <f t="shared" ref="AG15:AI15" si="20">G41</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="70">
+      <c r="AH15" s="70">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="70">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="14">
+      <c r="A16" s="67">
+        <v>44317</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4.13</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16" s="65">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H16" s="65">
+        <f t="shared" si="4"/>
+        <v>5.33E-2</v>
+      </c>
+      <c r="I16" s="65">
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J16" s="65">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="K16" s="65">
+        <f t="shared" si="7"/>
+        <v>2.3275000000000001E-2</v>
+      </c>
+      <c r="L16" s="65">
+        <f t="shared" si="8"/>
+        <v>2.7125000000000003E-2</v>
+      </c>
+      <c r="AB16" s="6">
+        <f>A44</f>
+        <v>45170</v>
+      </c>
+      <c r="AC16" s="10">
+        <f>B44</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
+        <f>C44</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="10">
+        <f>D44</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="10">
+        <f>E44</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="70">
+        <f t="shared" ref="AG16:AI16" si="21">G44</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="70">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="70">
+      <c r="AI16" s="70">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="14">
-      <c r="A16" s="67">
-        <v>44317</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>4.13</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G16" s="65">
-        <f t="shared" si="5"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="H16" s="65">
-        <f t="shared" si="6"/>
-        <v>5.33E-2</v>
-      </c>
-      <c r="I16" s="65">
-        <f t="shared" si="7"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J16" s="65">
-        <f t="shared" si="8"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="K16" s="65">
-        <f t="shared" si="9"/>
-        <v>2.3275000000000001E-2</v>
-      </c>
-      <c r="Y16" s="6">
-        <f>A44</f>
-        <v>45170</v>
-      </c>
-      <c r="Z16" s="10">
-        <f>B44</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="10">
-        <f>C44</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="10">
-        <f>D44</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="10">
-        <f>E44</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="70">
-        <f t="shared" ref="AD16:AF16" si="22">G44</f>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="70">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="70">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:35">
       <c r="A17" s="6">
         <v>44348</v>
       </c>
@@ -34851,28 +36768,32 @@
         <v>0.54</v>
       </c>
       <c r="G17" s="65">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="H17" s="65">
+        <f t="shared" si="4"/>
+        <v>5.3200000000000004E-2</v>
+      </c>
+      <c r="I17" s="65">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="H17" s="65">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="J17" s="65">
         <f t="shared" si="6"/>
-        <v>5.3200000000000004E-2</v>
-      </c>
-      <c r="I17" s="65">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="J17" s="65">
+        <v>2.2373000000000001E-2</v>
+      </c>
+      <c r="L17" s="65">
         <f t="shared" si="8"/>
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="K17" s="65">
-        <f t="shared" si="9"/>
-        <v>2.2373000000000001E-2</v>
-      </c>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="1:32">
+        <v>2.6355000000000003E-2</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="6">
         <v>44378</v>
       </c>
@@ -34892,29 +36813,33 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G18" s="65">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="H18" s="65">
+        <f t="shared" si="4"/>
+        <v>5.4300000000000008E-2</v>
+      </c>
+      <c r="I18" s="65">
         <f t="shared" si="5"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="H18" s="65">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J18" s="65">
         <f t="shared" si="6"/>
-        <v>5.4300000000000008E-2</v>
-      </c>
-      <c r="I18" s="65">
+        <v>1.4500000000000002E-2</v>
+      </c>
+      <c r="K18" s="65">
         <f t="shared" si="7"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J18" s="65">
+        <v>2.0935000000000002E-2</v>
+      </c>
+      <c r="L18" s="65">
         <f t="shared" si="8"/>
-        <v>1.4500000000000002E-2</v>
-      </c>
-      <c r="K18" s="65">
-        <f t="shared" si="9"/>
-        <v>2.0935000000000002E-2</v>
-      </c>
-      <c r="U18" s="51"/>
-      <c r="Y18" s="6"/>
-    </row>
-    <row r="19" spans="1:32" ht="14">
+        <v>2.5225000000000004E-2</v>
+      </c>
+      <c r="X18" s="51"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:35" ht="14">
       <c r="A19" s="67">
         <v>44409</v>
       </c>
@@ -34934,28 +36859,32 @@
         <v>0.54</v>
       </c>
       <c r="G19" s="65">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="65">
+        <f t="shared" si="4"/>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="I19" s="65">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="65">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J19" s="65">
         <f t="shared" si="6"/>
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="I19" s="65">
+        <v>1.54E-2</v>
+      </c>
+      <c r="K19" s="65">
         <f t="shared" si="7"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J19" s="65">
+        <v>2.1867999999999999E-2</v>
+      </c>
+      <c r="L19" s="65">
         <f t="shared" si="8"/>
-        <v>1.54E-2</v>
-      </c>
-      <c r="K19" s="65">
-        <f t="shared" si="9"/>
-        <v>2.1867999999999999E-2</v>
-      </c>
-      <c r="Y19" s="6"/>
-    </row>
-    <row r="20" spans="1:32">
+        <v>2.6180000000000002E-2</v>
+      </c>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="6">
         <v>44440</v>
       </c>
@@ -34975,28 +36904,32 @@
         <v>0.54</v>
       </c>
       <c r="G20" s="65">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="H20" s="65">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I20" s="65">
         <f t="shared" si="5"/>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="H20" s="65">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="J20" s="65">
         <f t="shared" si="6"/>
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I20" s="65">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K20" s="65">
         <f t="shared" si="7"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="J20" s="65">
+        <v>2.4702999999999999E-2</v>
+      </c>
+      <c r="L20" s="65">
         <f t="shared" si="8"/>
-        <v>1.84E-2</v>
-      </c>
-      <c r="K20" s="65">
-        <f t="shared" si="9"/>
-        <v>2.4702999999999999E-2</v>
-      </c>
-      <c r="Y20" s="6"/>
-    </row>
-    <row r="21" spans="1:32">
+        <v>2.8905E-2</v>
+      </c>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="6">
         <v>44470</v>
       </c>
@@ -35016,37 +36949,41 @@
         <v>0.54</v>
       </c>
       <c r="G21" s="65">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="65">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I21" s="65">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="65">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="J21" s="65">
         <f t="shared" si="6"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I21" s="65">
+        <v>1.54E-2</v>
+      </c>
+      <c r="K21" s="65">
         <f t="shared" si="7"/>
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="J21" s="65">
+        <v>2.1703E-2</v>
+      </c>
+      <c r="L21" s="65">
         <f t="shared" si="8"/>
-        <v>1.54E-2</v>
-      </c>
-      <c r="K21" s="65">
-        <f t="shared" si="9"/>
-        <v>2.1703E-2</v>
-      </c>
-      <c r="Y21" s="6"/>
-      <c r="AA21" s="77" t="s">
+        <v>2.5905000000000004E-2</v>
+      </c>
+      <c r="AB21" s="6"/>
+      <c r="AD21" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="AC21" s="77" t="s">
+      <c r="AF21" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="AD21" s="78" t="s">
+      <c r="AG21" s="78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14">
+    <row r="22" spans="1:35" ht="14">
       <c r="A22" s="67">
         <v>44501</v>
       </c>
@@ -35066,38 +37003,42 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G22" s="65">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="H22" s="65">
+        <f t="shared" si="4"/>
+        <v>4.7599999999999996E-2</v>
+      </c>
+      <c r="I22" s="65">
         <f t="shared" si="5"/>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="H22" s="65">
+        <v>3.3499999999999995E-2</v>
+      </c>
+      <c r="J22" s="65">
         <f t="shared" si="6"/>
-        <v>4.7599999999999996E-2</v>
-      </c>
-      <c r="I22" s="65">
+        <v>1.26E-2</v>
+      </c>
+      <c r="K22" s="65">
         <f t="shared" si="7"/>
-        <v>3.3499999999999995E-2</v>
-      </c>
-      <c r="J22" s="65">
+        <v>1.9496999999999997E-2</v>
+      </c>
+      <c r="L22" s="65">
         <f t="shared" si="8"/>
-        <v>1.26E-2</v>
-      </c>
-      <c r="K22" s="65">
-        <f t="shared" si="9"/>
-        <v>1.9496999999999997E-2</v>
-      </c>
-      <c r="Y22" s="6"/>
-      <c r="AA22" s="77" t="s">
+        <v>2.4095000000000002E-2</v>
+      </c>
+      <c r="AB22" s="6"/>
+      <c r="AD22" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="65">
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="65">
         <v>0.34499999999999997</v>
       </c>
-      <c r="AD22" s="70">
+      <c r="AG22" s="70">
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:35">
       <c r="A23" s="6">
         <v>44531</v>
       </c>
@@ -35117,37 +37058,41 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G23" s="65">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="65">
+        <f t="shared" si="4"/>
+        <v>4.7200000000000006E-2</v>
+      </c>
+      <c r="I23" s="65">
         <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="65">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="J23" s="65">
         <f t="shared" si="6"/>
-        <v>4.7200000000000006E-2</v>
-      </c>
-      <c r="I23" s="65">
+        <v>1.5600000000000001E-2</v>
+      </c>
+      <c r="K23" s="65">
         <f t="shared" si="7"/>
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="J23" s="65">
+        <v>2.1837000000000002E-2</v>
+      </c>
+      <c r="L23" s="65">
         <f t="shared" si="8"/>
-        <v>1.5600000000000001E-2</v>
-      </c>
-      <c r="K23" s="65">
-        <f t="shared" si="9"/>
-        <v>2.1837000000000002E-2</v>
-      </c>
-      <c r="Y23" s="6"/>
-      <c r="AA23" s="77" t="s">
+        <v>2.5995000000000004E-2</v>
+      </c>
+      <c r="AB23" s="6"/>
+      <c r="AD23" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="AC23" s="65">
+      <c r="AF23" s="65">
         <v>0.318</v>
       </c>
-      <c r="AD23" s="70">
+      <c r="AG23" s="70">
         <v>0.192</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:35">
       <c r="A24" s="6">
         <v>44562</v>
       </c>
@@ -35167,31 +37112,35 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G24" s="65">
+        <f t="shared" si="3"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="H24" s="65">
+        <f t="shared" si="4"/>
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="I24" s="65">
         <f t="shared" si="5"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="H24" s="65">
+        <v>3.85E-2</v>
+      </c>
+      <c r="J24" s="65">
         <f t="shared" si="6"/>
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="I24" s="65">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="K24" s="65">
         <f t="shared" si="7"/>
-        <v>3.85E-2</v>
-      </c>
-      <c r="J24" s="65">
+        <v>2.5836999999999999E-2</v>
+      </c>
+      <c r="L24" s="65">
         <f t="shared" si="8"/>
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="K24" s="65">
-        <f t="shared" si="9"/>
-        <v>2.5836999999999999E-2</v>
-      </c>
-      <c r="Y24" s="6"/>
-      <c r="AF24" s="78" t="s">
+        <v>2.9995000000000001E-2</v>
+      </c>
+      <c r="AB24" s="6"/>
+      <c r="AI24" s="78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="14">
+    <row r="25" spans="1:35" ht="14">
       <c r="A25" s="67">
         <v>44593</v>
       </c>
@@ -35211,43 +37160,47 @@
         <v>0.6</v>
       </c>
       <c r="G25" s="65">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H25" s="65">
+        <f t="shared" si="4"/>
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="I25" s="65">
         <f t="shared" si="5"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H25" s="65">
+        <v>3.95E-2</v>
+      </c>
+      <c r="J25" s="65">
         <f t="shared" si="6"/>
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="I25" s="65">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K25" s="65">
         <f t="shared" si="7"/>
-        <v>3.95E-2</v>
-      </c>
-      <c r="J25" s="65">
+        <v>2.7104999999999997E-2</v>
+      </c>
+      <c r="L25" s="65">
         <f t="shared" si="8"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="K25" s="65">
-        <f t="shared" si="9"/>
-        <v>2.7104999999999997E-2</v>
-      </c>
-      <c r="Y25" s="6"/>
-      <c r="AA25" s="77" t="s">
+        <v>3.1175000000000001E-2</v>
+      </c>
+      <c r="AB25" s="6"/>
+      <c r="AD25" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="AC25" s="65">
-        <f>AC22-AC23</f>
+      <c r="AF25" s="65">
+        <f>AF22-AF23</f>
         <v>2.6999999999999968E-2</v>
       </c>
-      <c r="AD25" s="65">
-        <f>AD22-AD23</f>
+      <c r="AG25" s="65">
+        <f>AG22-AG23</f>
         <v>1.3999999999999985E-2</v>
       </c>
-      <c r="AF25" s="70">
-        <f>(AC25+AD25)/2</f>
+      <c r="AI25" s="70">
+        <f>(AF25+AG25)/2</f>
         <v>2.0499999999999977E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16">
+    <row r="26" spans="1:35" ht="16">
       <c r="A26" s="69">
         <v>44621</v>
       </c>
@@ -35267,15 +37220,15 @@
         <v>0.6</v>
       </c>
       <c r="G26" s="65">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H26" s="65">
+        <f t="shared" si="4"/>
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="I26" s="65">
         <f t="shared" si="5"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H26" s="65">
-        <f t="shared" si="6"/>
-        <v>6.2100000000000002E-2</v>
-      </c>
-      <c r="I26" s="65">
-        <f t="shared" si="7"/>
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="J26" s="65">
@@ -35283,50 +37236,58 @@
         <v>2.3E-2</v>
       </c>
       <c r="K26" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9104999999999999E-2</v>
       </c>
       <c r="L26" s="65">
-        <f>R26*$L$1+O26*(1-$L$1)</f>
+        <f t="shared" si="8"/>
+        <v>3.3175000000000003E-2</v>
+      </c>
+      <c r="N26" s="65">
+        <f>U26*$M$1+R26*(1-$M$1)</f>
         <v>2.8769999999999997E-2</v>
       </c>
-      <c r="M26" s="65">
+      <c r="O26" s="65">
+        <f>U26*$M$2+R26*(1-$M$2)</f>
+        <v>3.295E-2</v>
+      </c>
+      <c r="P26" s="65">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N26" s="70">
+      <c r="Q26" s="70">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="O26" s="65">
-        <f>N26+M26</f>
+      <c r="R26" s="65">
+        <f>Q26+P26</f>
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="P26" s="51">
+      <c r="S26" s="51">
         <f>(2.34-2.06)*1000</f>
         <v>279.99999999999983</v>
       </c>
-      <c r="Q26" s="70">
+      <c r="T26" s="70">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="R26" s="65">
-        <f t="shared" si="17"/>
+      <c r="U26" s="65">
+        <f t="shared" si="16"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="6"/>
-      <c r="AA26" s="77" t="s">
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="6"/>
+      <c r="AD26" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="AC26" s="65">
+      <c r="AF26" s="65">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD26" s="65">
+      <c r="AG26" s="65">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF26" s="70">
+      <c r="AI26" s="70">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14">
+    <row r="27" spans="1:35" ht="14">
       <c r="A27" s="67">
         <v>44652</v>
       </c>
@@ -35346,27 +37307,31 @@
         <v>0.63</v>
       </c>
       <c r="G27" s="65">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="H27" s="65">
+        <f t="shared" si="4"/>
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="I27" s="65">
         <f t="shared" si="5"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="H27" s="65">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="J27" s="65">
         <f t="shared" si="6"/>
-        <v>6.4100000000000004E-2</v>
-      </c>
-      <c r="I27" s="65">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K27" s="65">
         <f t="shared" si="7"/>
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="J27" s="65">
+        <v>3.1306E-2</v>
+      </c>
+      <c r="L27" s="65">
         <f t="shared" si="8"/>
-        <v>2.53E-2</v>
-      </c>
-      <c r="K27" s="65">
-        <f t="shared" si="9"/>
-        <v>3.1306E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
+        <v>3.5310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="6">
         <v>44682</v>
       </c>
@@ -35386,42 +37351,46 @@
         <v>0.64</v>
       </c>
       <c r="G28" s="65">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H28" s="65">
+        <f t="shared" si="4"/>
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="I28" s="65">
         <f t="shared" si="5"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="H28" s="65">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="J28" s="65">
         <f t="shared" si="6"/>
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="I28" s="65">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="K28" s="65">
         <f t="shared" si="7"/>
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="J28" s="65">
+        <v>3.5373000000000002E-2</v>
+      </c>
+      <c r="L28" s="65">
         <f t="shared" si="8"/>
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="K28" s="65">
-        <f t="shared" si="9"/>
-        <v>3.5373000000000002E-2</v>
-      </c>
-      <c r="AA28" s="77" t="s">
+        <v>3.9355000000000001E-2</v>
+      </c>
+      <c r="AD28" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="AC28" s="77">
-        <f>AC25/AC26</f>
+      <c r="AF28" s="77">
+        <f>AF25/AF26</f>
         <v>5.3999999999999932</v>
       </c>
-      <c r="AD28" s="77">
-        <f>AD25/AD26</f>
+      <c r="AG28" s="77">
+        <f>AG25/AG26</f>
         <v>2.7999999999999967</v>
       </c>
-      <c r="AF28" s="51">
-        <f>AF25/AF26</f>
+      <c r="AI28" s="51">
+        <f>AI25/AI26</f>
         <v>4.0999999999999952</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:35">
       <c r="A29" s="6">
         <v>44713</v>
       </c>
@@ -35441,27 +37410,31 @@
         <v>0.63</v>
       </c>
       <c r="G29" s="65">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H29" s="65">
+        <f t="shared" si="4"/>
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I29" s="65">
         <f t="shared" si="5"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H29" s="65">
+        <v>4.4500000000000005E-2</v>
+      </c>
+      <c r="J29" s="65">
         <f t="shared" si="6"/>
-        <v>6.6699999999999995E-2</v>
-      </c>
-      <c r="I29" s="65">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="K29" s="65">
         <f t="shared" si="7"/>
-        <v>4.4500000000000005E-2</v>
-      </c>
-      <c r="J29" s="65">
+        <v>3.5656000000000007E-2</v>
+      </c>
+      <c r="L29" s="65">
         <f t="shared" si="8"/>
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="K29" s="65">
-        <f t="shared" si="9"/>
-        <v>3.5656000000000007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="14">
+        <v>3.8560000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="14">
       <c r="A30" s="67">
         <v>44743</v>
       </c>
@@ -35481,30 +37454,34 @@
         <v>0.61</v>
       </c>
       <c r="G30" s="65">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="H30" s="65">
+        <f t="shared" si="4"/>
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="I30" s="65">
         <f t="shared" si="5"/>
-        <v>2.3E-2</v>
-      </c>
-      <c r="H30" s="65">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="J30" s="65">
         <f t="shared" si="6"/>
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="I30" s="65">
+        <v>2.9099999999999997E-2</v>
+      </c>
+      <c r="K30" s="65">
         <f t="shared" si="7"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="J30" s="65">
+        <v>3.3521999999999996E-2</v>
+      </c>
+      <c r="L30" s="65">
         <f t="shared" si="8"/>
-        <v>2.9099999999999997E-2</v>
-      </c>
-      <c r="K30" s="65">
-        <f t="shared" si="9"/>
-        <v>3.3521999999999996E-2</v>
-      </c>
-      <c r="AA30" s="77" t="s">
+        <v>3.6470000000000002E-2</v>
+      </c>
+      <c r="AD30" s="77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:35">
       <c r="A31" s="6">
         <v>44774</v>
       </c>
@@ -35524,42 +37501,46 @@
         <v>0.63</v>
       </c>
       <c r="G31" s="65">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="H31" s="65">
+        <f t="shared" si="4"/>
+        <v>7.17E-2</v>
+      </c>
+      <c r="I31" s="65">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="H31" s="65">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="J31" s="65">
         <f t="shared" si="6"/>
-        <v>7.17E-2</v>
-      </c>
-      <c r="I31" s="65">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="K31" s="65">
         <f t="shared" si="7"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="J31" s="65">
+        <v>4.0655999999999998E-2</v>
+      </c>
+      <c r="L31" s="65">
         <f t="shared" si="8"/>
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="K31" s="65">
-        <f t="shared" si="9"/>
-        <v>4.0655999999999998E-2</v>
-      </c>
-      <c r="AA31" s="77" t="s">
+        <v>4.3560000000000001E-2</v>
+      </c>
+      <c r="AD31" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="AC31" s="51">
-        <f>AC28*2.7</f>
+      <c r="AF31" s="51">
+        <f>AF28*2.7</f>
         <v>14.579999999999982</v>
       </c>
-      <c r="AD31" s="51">
-        <f>AD28*2.7</f>
+      <c r="AG31" s="51">
+        <f>AG28*2.7</f>
         <v>7.5599999999999916</v>
       </c>
-      <c r="AF31" s="51">
-        <f>AVERAGE(AC31:AD31)</f>
+      <c r="AI31" s="51">
+        <f>AVERAGE(AF31:AG31)</f>
         <v>11.069999999999986</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:35">
       <c r="A32" s="6">
         <v>44805</v>
       </c>
@@ -35579,27 +37560,31 @@
         <v>0.7</v>
       </c>
       <c r="G32" s="65">
+        <f t="shared" si="3"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="H32" s="65">
+        <f t="shared" si="4"/>
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="I32" s="65">
         <f t="shared" si="5"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="H32" s="65">
+        <v>5.5500000000000008E-2</v>
+      </c>
+      <c r="J32" s="65">
         <f t="shared" si="6"/>
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="I32" s="65">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="K32" s="65">
         <f t="shared" si="7"/>
-        <v>5.5500000000000008E-2</v>
-      </c>
-      <c r="J32" s="65">
+        <v>4.7795000000000004E-2</v>
+      </c>
+      <c r="L32" s="65">
         <f t="shared" si="8"/>
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="K32" s="65">
-        <f t="shared" si="9"/>
-        <v>4.7795000000000004E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="14">
+        <v>5.0325000000000009E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="14">
       <c r="A33" s="67">
         <v>44835</v>
       </c>
@@ -35619,27 +37604,31 @@
         <v>0.67</v>
       </c>
       <c r="G33" s="65">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H33" s="65">
+        <f t="shared" si="4"/>
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="I33" s="65">
         <f t="shared" si="5"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H33" s="65">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="J33" s="65">
         <f t="shared" si="6"/>
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="I33" s="65">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="K33" s="65">
         <f t="shared" si="7"/>
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="J33" s="65">
+        <v>4.5593999999999996E-2</v>
+      </c>
+      <c r="L33" s="65">
         <f t="shared" si="8"/>
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="K33" s="65">
-        <f t="shared" si="9"/>
-        <v>4.5593999999999996E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>4.8190000000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="6">
         <v>44866</v>
       </c>
@@ -35659,27 +37648,31 @@
         <v>0.64</v>
       </c>
       <c r="G34" s="65">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H34" s="65">
+        <f t="shared" si="4"/>
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I34" s="65">
         <f t="shared" si="5"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H34" s="65">
+        <v>5.1500000000000004E-2</v>
+      </c>
+      <c r="J34" s="65">
         <f t="shared" si="6"/>
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="I34" s="65">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="K34" s="65">
         <f t="shared" si="7"/>
-        <v>5.1500000000000004E-2</v>
-      </c>
-      <c r="J34" s="65">
+        <v>4.3393000000000001E-2</v>
+      </c>
+      <c r="L34" s="65">
         <f t="shared" si="8"/>
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="K34" s="65">
-        <f t="shared" si="9"/>
-        <v>4.3393000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>4.6054999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="6">
         <v>44896</v>
       </c>
@@ -35699,27 +37692,31 @@
         <v>0.61</v>
       </c>
       <c r="G35" s="65">
+        <f t="shared" si="3"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="H35" s="65">
+        <f t="shared" si="4"/>
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="I35" s="65">
         <f t="shared" si="5"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="H35" s="65">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J35" s="65">
         <f t="shared" si="6"/>
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="I35" s="65">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="K35" s="65">
         <f t="shared" si="7"/>
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J35" s="65">
+        <v>4.7706999999999999E-2</v>
+      </c>
+      <c r="L35" s="65">
         <f t="shared" si="8"/>
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="K35" s="65">
-        <f t="shared" si="9"/>
-        <v>4.7706999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>4.9445000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="6">
         <v>44927</v>
       </c>
@@ -35739,27 +37736,31 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G36" s="65">
+        <f t="shared" si="3"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="H36" s="65">
+        <f t="shared" si="4"/>
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="I36" s="65">
         <f t="shared" si="5"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="H36" s="65">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J36" s="65">
         <f t="shared" si="6"/>
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="I36" s="65">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="K36" s="65">
         <f t="shared" si="7"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="J36" s="65">
+        <v>4.5439E-2</v>
+      </c>
+      <c r="L36" s="65">
         <f t="shared" si="8"/>
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="K36" s="65">
-        <f t="shared" si="9"/>
-        <v>4.5439E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>4.7265000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="6">
         <v>44958</v>
       </c>
@@ -35779,27 +37780,31 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G37" s="65">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="H37" s="65">
+        <f t="shared" si="4"/>
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I37" s="65">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="H37" s="65">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="J37" s="65">
         <f t="shared" si="6"/>
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="I37" s="65">
+        <v>4.58E-2</v>
+      </c>
+      <c r="K37" s="65">
         <f t="shared" si="7"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="J37" s="65">
+        <v>4.8506000000000001E-2</v>
+      </c>
+      <c r="L37" s="65">
         <f t="shared" si="8"/>
-        <v>4.58E-2</v>
-      </c>
-      <c r="K37" s="65">
-        <f t="shared" si="9"/>
-        <v>4.8506000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="16">
+        <v>5.0310000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16">
       <c r="A38" s="69">
         <v>44986</v>
       </c>
@@ -35819,99 +37824,107 @@
         <v>0.61</v>
       </c>
       <c r="G38" s="65">
+        <f t="shared" si="3"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="H38" s="65">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I38" s="65">
         <f t="shared" si="5"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="H38" s="65">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J38" s="65">
         <f t="shared" si="6"/>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="I38" s="65">
+        <v>4.3100000000000006E-2</v>
+      </c>
+      <c r="K38" s="65">
         <f t="shared" si="7"/>
-        <v>5.5E-2</v>
-      </c>
-      <c r="J38" s="65">
+        <v>4.7027000000000006E-2</v>
+      </c>
+      <c r="L38" s="65">
         <f t="shared" si="8"/>
-        <v>4.3100000000000006E-2</v>
-      </c>
-      <c r="K38" s="65">
-        <f t="shared" si="9"/>
-        <v>4.7027000000000006E-2</v>
-      </c>
-      <c r="L38" s="65">
-        <f>R38*$L$1+O38*(1-$L$1)</f>
+        <v>4.9645000000000009E-2</v>
+      </c>
+      <c r="N38" s="65">
+        <f>U38*$M$1+R38*(1-$M$1)</f>
         <v>5.1279999999999999E-2</v>
       </c>
-      <c r="M38" s="65">
+      <c r="O38" s="65">
+        <f>U38*$M$2+R38*(1-$M$2)</f>
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="P38" s="65">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N38" s="70">
+      <c r="Q38" s="70">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O38" s="65">
-        <f>N38+M38</f>
+      <c r="R38" s="65">
+        <f>Q38+P38</f>
         <v>6.2E-2</v>
       </c>
-      <c r="P38" s="51">
+      <c r="S38" s="51">
         <v>0</v>
       </c>
-      <c r="Q38" s="70">
+      <c r="T38" s="70">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R38" s="65">
-        <f t="shared" si="17"/>
+      <c r="U38" s="65">
+        <f t="shared" si="16"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="S38" s="70">
+      <c r="V38" s="70">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="T38" s="70">
+      <c r="W38" s="70">
         <v>1.2E-2</v>
       </c>
-      <c r="U38" s="65">
-        <f>S38+M38</f>
+      <c r="X38" s="65">
+        <f>V38+P38</f>
         <v>8.4499999999999992E-2</v>
       </c>
-      <c r="V38" s="65">
-        <f>T38+M38</f>
+      <c r="Y38" s="65">
+        <f>W38+P38</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="X38" s="51"/>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="AA38" s="51"/>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="6">
         <v>45017</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:27">
       <c r="A40" s="6">
         <v>45047</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:27">
       <c r="A41" s="6">
         <v>45078</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:27">
       <c r="A42" s="6">
         <v>45108</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:27">
       <c r="A43" s="6">
         <v>45139</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:27">
       <c r="A44" s="6">
         <v>45170</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:27">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:27">
       <c r="A46" s="6"/>
     </row>
   </sheetData>

--- a/data_analysis/Fig_01_02_03_04_05_14_Vals_Monitoring.xlsx
+++ b/data_analysis/Fig_01_02_03_04_05_14_Vals_Monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2140E-10CD-F04C-A75D-CC341893E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553AB24-32C9-244F-BFE5-AEF4265B3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35234,7 +35234,7 @@
   </sheetPr>
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
@@ -35331,19 +35331,19 @@
         <v>63</v>
       </c>
       <c r="AC1" s="73" t="str">
-        <f>B1</f>
+        <f t="shared" ref="AC1:AF2" si="0">B1</f>
         <v>Nom Gilts (single equiv)</v>
       </c>
       <c r="AD1" s="73" t="str">
-        <f>C1</f>
+        <f t="shared" si="0"/>
         <v>FBB expected pre-retirement return relative to 30 yr nom gilts</v>
       </c>
       <c r="AE1" s="73" t="str">
-        <f>D1</f>
+        <f t="shared" si="0"/>
         <v>Discount rates: Pre- retirement (Gilts+)</v>
       </c>
       <c r="AF1" s="73" t="str">
-        <f>E1</f>
+        <f t="shared" si="0"/>
         <v>CPI capped at 2.5% (single equiv)</v>
       </c>
       <c r="AG1" s="74" t="str">
@@ -35358,15 +35358,15 @@
       </c>
       <c r="AJ1" s="72"/>
       <c r="AK1" s="72" t="str">
-        <f t="shared" ref="AK1:AK2" si="0">P1</f>
+        <f t="shared" ref="AK1:AK2" si="1">P1</f>
         <v>SE gilt yield Valuations (interim and full)</v>
       </c>
       <c r="AL1" s="72" t="str">
-        <f t="shared" ref="AL1:AL2" si="1">Q1</f>
+        <f t="shared" ref="AL1:AL2" si="2">Q1</f>
         <v>Valuations</v>
       </c>
       <c r="AM1" s="72" t="str">
-        <f t="shared" ref="AM1:AM2" si="2">R1</f>
+        <f t="shared" ref="AM1:AM2" si="3">R1</f>
         <v>Valuations yearly (full and interim)</v>
       </c>
       <c r="AN1" s="52" t="s">
@@ -35478,19 +35478,19 @@
         <v>43891</v>
       </c>
       <c r="AC2" s="51">
-        <f>B2</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="AD2" s="51">
-        <f>C2</f>
+        <f t="shared" si="0"/>
         <v>5.28</v>
       </c>
       <c r="AE2" s="51">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="AF2" s="51">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="AG2" s="70">
@@ -35507,15 +35507,15 @@
       </c>
       <c r="AJ2" s="70"/>
       <c r="AK2" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AL2" s="70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75E-2</v>
       </c>
       <c r="AM2" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="AP2" s="76">
@@ -35549,27 +35549,27 @@
         <v>0.9</v>
       </c>
       <c r="G3" s="65">
-        <f t="shared" ref="G3:G38" si="3">B3/100</f>
+        <f t="shared" ref="G3:G38" si="4">B3/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="65">
-        <f t="shared" ref="H3:H38" si="4">(B3+C3)/100</f>
+        <f t="shared" ref="H3:H38" si="5">(B3+C3)/100</f>
         <v>5.7300000000000004E-2</v>
       </c>
       <c r="I3" s="65">
-        <f t="shared" ref="I3:I38" si="5">(B3+D3)/100</f>
+        <f t="shared" ref="I3:I38" si="6">(B3+D3)/100</f>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="J3" s="65">
-        <f t="shared" ref="J3:J38" si="6">(B3+F3)/100</f>
+        <f t="shared" ref="J3:J38" si="7">(B3+F3)/100</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="K3" s="65">
-        <f t="shared" ref="K3:K38" si="7">J3*$M$1+I3*(1-$M$1)</f>
+        <f t="shared" ref="K3:K38" si="8">J3*$M$1+I3*(1-$M$1)</f>
         <v>2.0104999999999998E-2</v>
       </c>
       <c r="L3" s="65">
-        <f t="shared" ref="L3:L38" si="8">J3*$M$2+I3*(1-$M$2)</f>
+        <f t="shared" ref="L3:L38" si="9">J3*$M$2+I3*(1-$M$2)</f>
         <v>2.4175000000000002E-2</v>
       </c>
       <c r="AB3" s="6">
@@ -35618,7 +35618,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR6" si="9">AQ3*$AS$1</f>
+        <f t="shared" ref="AR3:AR6" si="10">AQ3*$AS$1</f>
         <v>2.06</v>
       </c>
     </row>
@@ -35642,27 +35642,27 @@
         <v>0.86</v>
       </c>
       <c r="G4" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="I4" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J4" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="K4" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9671999999999999E-2</v>
       </c>
       <c r="L4" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3720000000000001E-2</v>
       </c>
       <c r="AB4" s="6">
@@ -35708,7 +35708,7 @@
         <v>0.192</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.92</v>
       </c>
     </row>
@@ -35732,27 +35732,27 @@
         <v>0.8</v>
       </c>
       <c r="G5" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H5" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4099999999999995E-2</v>
       </c>
       <c r="I5" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="J5" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="K5" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0104999999999998E-2</v>
       </c>
       <c r="L5" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4175000000000002E-2</v>
       </c>
       <c r="AB5" s="6">
@@ -35812,27 +35812,27 @@
         <v>0.75</v>
       </c>
       <c r="G6" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="I6" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1E-2</v>
       </c>
       <c r="J6" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K6" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8605E-2</v>
       </c>
       <c r="L6" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2675000000000004E-2</v>
       </c>
       <c r="AB6" s="6">
@@ -35869,15 +35869,15 @@
       </c>
       <c r="AJ6" s="70"/>
       <c r="AK6" s="70">
-        <f t="shared" ref="AK6" si="10">P14</f>
+        <f t="shared" ref="AK6" si="11">P14</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="AL6" s="70">
-        <f t="shared" ref="AL6" si="11">Q14</f>
+        <f t="shared" ref="AL6" si="12">Q14</f>
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="AM6" s="70">
-        <f t="shared" ref="AM6" si="12">R14</f>
+        <f t="shared" ref="AM6" si="13">R14</f>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="AO6">
@@ -35891,7 +35891,7 @@
         <v>0.23399999999999999</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.34</v>
       </c>
     </row>
@@ -35915,27 +35915,27 @@
         <v>0.73</v>
       </c>
       <c r="G7" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H7" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.21E-2</v>
       </c>
       <c r="I7" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3499999999999995E-2</v>
       </c>
       <c r="J7" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5300000000000001E-2</v>
       </c>
       <c r="K7" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1305999999999999E-2</v>
       </c>
       <c r="L7" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5309999999999999E-2</v>
       </c>
       <c r="AB7" s="6">
@@ -35995,27 +35995,27 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="H8" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="I8" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="J8" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.44E-2</v>
       </c>
       <c r="K8" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0538000000000001E-2</v>
       </c>
       <c r="L8" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4630000000000003E-2</v>
       </c>
       <c r="AB8" s="6">
@@ -36075,27 +36075,27 @@
         <v>0.73</v>
       </c>
       <c r="G9" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="H9" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="I9" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J9" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.43E-2</v>
       </c>
       <c r="K9" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0801E-2</v>
       </c>
       <c r="L9" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5135000000000001E-2</v>
       </c>
       <c r="AB9" s="6">
@@ -36155,27 +36155,27 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H10" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.16E-2</v>
       </c>
       <c r="I10" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="J10" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K10" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0774999999999998E-2</v>
       </c>
       <c r="L10" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4625000000000001E-2</v>
       </c>
       <c r="AB10" s="6">
@@ -36212,15 +36212,15 @@
       </c>
       <c r="AJ10" s="70"/>
       <c r="AK10" s="70">
-        <f t="shared" ref="AK10" si="13">P26</f>
+        <f t="shared" ref="AK10" si="14">P26</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AL10" s="70">
-        <f t="shared" ref="AL10" si="14">Q26</f>
+        <f t="shared" ref="AL10" si="15">Q26</f>
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="AM10" s="70">
-        <f t="shared" ref="AM10" si="15">R26</f>
+        <f t="shared" ref="AM10" si="16">R26</f>
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
@@ -36244,27 +36244,27 @@
         <v>0.69</v>
       </c>
       <c r="G11" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H11" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="I11" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0500000000000003E-2</v>
       </c>
       <c r="J11" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.29E-2</v>
       </c>
       <c r="K11" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8708000000000002E-2</v>
       </c>
       <c r="L11" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2580000000000003E-2</v>
       </c>
       <c r="AB11" s="6">
@@ -36324,27 +36324,27 @@
         <v>0.69</v>
       </c>
       <c r="G12" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H12" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="I12" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="J12" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.49E-2</v>
       </c>
       <c r="K12" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0872999999999999E-2</v>
       </c>
       <c r="L12" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4855000000000002E-2</v>
       </c>
       <c r="AB12" s="6">
@@ -36404,27 +36404,27 @@
         <v>0.68</v>
       </c>
       <c r="G13" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="H13" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0700000000000002E-2</v>
       </c>
       <c r="I13" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J13" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9799999999999998E-2</v>
       </c>
       <c r="K13" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4486000000000001E-2</v>
       </c>
       <c r="L13" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7610000000000003E-2</v>
       </c>
       <c r="AB13" s="6">
@@ -36484,27 +36484,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G14" s="83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="H14" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="I14" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="J14" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8500000000000003E-2</v>
       </c>
       <c r="K14" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.477E-2</v>
       </c>
       <c r="L14" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8950000000000004E-2</v>
       </c>
       <c r="M14" s="65"/>
@@ -36531,7 +36531,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="U14" s="83">
-        <f t="shared" ref="U14:U38" si="16">T14+P14</f>
+        <f t="shared" ref="U14:U38" si="17">T14+P14</f>
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="V14" s="84">
@@ -36584,15 +36584,15 @@
       </c>
       <c r="AJ14" s="84"/>
       <c r="AK14" s="84">
-        <f t="shared" ref="AK14" si="17">P38</f>
+        <f t="shared" ref="AK14" si="18">P38</f>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="AL14" s="84">
-        <f t="shared" ref="AL14" si="18">Q38</f>
+        <f t="shared" ref="AL14" si="19">Q38</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AM14" s="84">
-        <f t="shared" ref="AM14" si="19">R38</f>
+        <f t="shared" ref="AM14" si="20">R38</f>
         <v>6.2E-2</v>
       </c>
     </row>
@@ -36616,27 +36616,27 @@
         <v>0.54</v>
       </c>
       <c r="G15" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2E-2</v>
       </c>
       <c r="H15" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3100000000000008E-2</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3207999999999999E-2</v>
       </c>
       <c r="L15" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7080000000000003E-2</v>
       </c>
       <c r="AB15" s="6">
@@ -36660,15 +36660,15 @@
         <v>0</v>
       </c>
       <c r="AG15" s="70">
-        <f t="shared" ref="AG15:AI15" si="20">G41</f>
+        <f t="shared" ref="AG15:AI15" si="21">G41</f>
         <v>0</v>
       </c>
       <c r="AH15" s="70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AI15" s="70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -36692,27 +36692,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G16" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2E-2</v>
       </c>
       <c r="H16" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.33E-2</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J16" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="K16" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3275000000000001E-2</v>
       </c>
       <c r="L16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.7125000000000003E-2</v>
       </c>
       <c r="AB16" s="6">
@@ -36736,15 +36736,15 @@
         <v>0</v>
       </c>
       <c r="AG16" s="70">
-        <f t="shared" ref="AG16:AI16" si="21">G44</f>
+        <f t="shared" ref="AG16:AI16" si="22">G44</f>
         <v>0</v>
       </c>
       <c r="AH16" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI16" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -36768,27 +36768,27 @@
         <v>0.54</v>
       </c>
       <c r="G17" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="H17" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="I17" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="J17" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="K17" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2373000000000001E-2</v>
       </c>
       <c r="L17" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6355000000000003E-2</v>
       </c>
       <c r="AB17" s="6"/>
@@ -36813,27 +36813,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G18" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="H18" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4300000000000008E-2</v>
       </c>
       <c r="I18" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J18" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4500000000000002E-2</v>
       </c>
       <c r="K18" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0935000000000002E-2</v>
       </c>
       <c r="L18" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5225000000000004E-2</v>
       </c>
       <c r="X18" s="51"/>
@@ -36859,27 +36859,27 @@
         <v>0.54</v>
       </c>
       <c r="G19" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="H19" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5300000000000002E-2</v>
       </c>
       <c r="I19" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J19" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.54E-2</v>
       </c>
       <c r="K19" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1867999999999999E-2</v>
       </c>
       <c r="L19" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6180000000000002E-2</v>
       </c>
       <c r="AB19" s="6"/>
@@ -36904,27 +36904,27 @@
         <v>0.54</v>
       </c>
       <c r="G20" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="H20" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I20" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="J20" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.84E-2</v>
       </c>
       <c r="K20" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.4702999999999999E-2</v>
       </c>
       <c r="L20" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8905E-2</v>
       </c>
       <c r="AB20" s="6"/>
@@ -36949,27 +36949,27 @@
         <v>0.54</v>
       </c>
       <c r="G21" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="H21" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I21" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="J21" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.54E-2</v>
       </c>
       <c r="K21" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1703E-2</v>
       </c>
       <c r="L21" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5905000000000004E-2</v>
       </c>
       <c r="AB21" s="6"/>
@@ -37003,27 +37003,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G22" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="H22" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7599999999999996E-2</v>
       </c>
       <c r="I22" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3499999999999995E-2</v>
       </c>
       <c r="J22" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.26E-2</v>
       </c>
       <c r="K22" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9496999999999997E-2</v>
       </c>
       <c r="L22" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4095000000000002E-2</v>
       </c>
       <c r="AB22" s="6"/>
@@ -37058,27 +37058,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G23" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="H23" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7200000000000006E-2</v>
       </c>
       <c r="I23" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="J23" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5600000000000001E-2</v>
       </c>
       <c r="K23" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1837000000000002E-2</v>
       </c>
       <c r="L23" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5995000000000004E-2</v>
       </c>
       <c r="AB23" s="6"/>
@@ -37112,27 +37112,27 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G24" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="H24" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="I24" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.85E-2</v>
       </c>
       <c r="J24" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="K24" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.5836999999999999E-2</v>
       </c>
       <c r="L24" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9995000000000001E-2</v>
       </c>
       <c r="AB24" s="6"/>
@@ -37160,27 +37160,27 @@
         <v>0.6</v>
       </c>
       <c r="G25" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H25" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2200000000000003E-2</v>
       </c>
       <c r="I25" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.95E-2</v>
       </c>
       <c r="J25" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="K25" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7104999999999997E-2</v>
       </c>
       <c r="L25" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1175000000000001E-2</v>
       </c>
       <c r="AB25" s="6"/>
@@ -37220,15 +37220,15 @@
         <v>0.6</v>
       </c>
       <c r="G26" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H26" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="I26" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="J26" s="65">
@@ -37236,11 +37236,11 @@
         <v>2.3E-2</v>
       </c>
       <c r="K26" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9104999999999999E-2</v>
       </c>
       <c r="L26" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3175000000000003E-2</v>
       </c>
       <c r="N26" s="65">
@@ -37269,7 +37269,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="U26" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="AA26" s="51"/>
@@ -37307,27 +37307,27 @@
         <v>0.63</v>
       </c>
       <c r="G27" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9E-2</v>
       </c>
       <c r="H27" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="I27" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="J27" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.53E-2</v>
       </c>
       <c r="K27" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1306E-2</v>
       </c>
       <c r="L27" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5310000000000001E-2</v>
       </c>
     </row>
@@ -37351,27 +37351,27 @@
         <v>0.64</v>
       </c>
       <c r="G28" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3E-2</v>
       </c>
       <c r="H28" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8099999999999994E-2</v>
       </c>
       <c r="I28" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="J28" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="K28" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5373000000000002E-2</v>
       </c>
       <c r="L28" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9355000000000001E-2</v>
       </c>
       <c r="AD28" s="77" t="s">
@@ -37410,27 +37410,27 @@
         <v>0.63</v>
       </c>
       <c r="G29" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H29" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="I29" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4500000000000005E-2</v>
       </c>
       <c r="J29" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="K29" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5656000000000007E-2</v>
       </c>
       <c r="L29" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8560000000000004E-2</v>
       </c>
     </row>
@@ -37454,27 +37454,27 @@
         <v>0.61</v>
       </c>
       <c r="G30" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3E-2</v>
       </c>
       <c r="H30" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="I30" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="J30" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9099999999999997E-2</v>
       </c>
       <c r="K30" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3521999999999996E-2</v>
       </c>
       <c r="L30" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6470000000000002E-2</v>
       </c>
       <c r="AD30" s="77" t="s">
@@ -37501,27 +37501,27 @@
         <v>0.63</v>
       </c>
       <c r="G31" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="H31" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.17E-2</v>
       </c>
       <c r="I31" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="J31" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="K31" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0655999999999998E-2</v>
       </c>
       <c r="L31" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3560000000000001E-2</v>
       </c>
       <c r="AD31" s="77" t="s">
@@ -37560,27 +37560,27 @@
         <v>0.7</v>
       </c>
       <c r="G32" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="H32" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="I32" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="J32" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="K32" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7795000000000004E-2</v>
       </c>
       <c r="L32" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0325000000000009E-2</v>
       </c>
     </row>
@@ -37604,27 +37604,27 @@
         <v>0.67</v>
       </c>
       <c r="G33" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H33" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8900000000000003E-2</v>
       </c>
       <c r="I33" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="J33" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="K33" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5593999999999996E-2</v>
       </c>
       <c r="L33" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8190000000000004E-2</v>
       </c>
     </row>
@@ -37648,27 +37648,27 @@
         <v>0.64</v>
       </c>
       <c r="G34" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H34" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6900000000000001E-2</v>
       </c>
       <c r="I34" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1500000000000004E-2</v>
       </c>
       <c r="J34" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="K34" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3393000000000001E-2</v>
       </c>
       <c r="L34" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6054999999999999E-2</v>
       </c>
     </row>
@@ -37692,27 +37692,27 @@
         <v>0.61</v>
       </c>
       <c r="G35" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9E-2</v>
       </c>
       <c r="H35" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1099999999999997E-2</v>
       </c>
       <c r="I35" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="J35" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="K35" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7706999999999999E-2</v>
       </c>
       <c r="L35" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9445000000000003E-2</v>
       </c>
     </row>
@@ -37736,27 +37736,27 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G36" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="H36" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9099999999999995E-2</v>
       </c>
       <c r="I36" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="J36" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="K36" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5439E-2</v>
       </c>
       <c r="L36" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7265000000000001E-2</v>
       </c>
     </row>
@@ -37780,27 +37780,27 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G37" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="H37" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2099999999999997E-2</v>
       </c>
       <c r="I37" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="J37" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.58E-2</v>
       </c>
       <c r="K37" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8506000000000001E-2</v>
       </c>
       <c r="L37" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.0310000000000007E-2</v>
       </c>
     </row>
@@ -37824,27 +37824,27 @@
         <v>0.61</v>
       </c>
       <c r="G38" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="H38" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I38" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5E-2</v>
       </c>
       <c r="J38" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3100000000000006E-2</v>
       </c>
       <c r="K38" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7027000000000006E-2</v>
       </c>
       <c r="L38" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9645000000000009E-2</v>
       </c>
       <c r="N38" s="65">
@@ -37872,7 +37872,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="U38" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="V38" s="70">
@@ -37939,8 +37939,8 @@
   </sheetPr>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data_analysis/Fig_01_02_03_04_05_14_Vals_Monitoring.xlsx
+++ b/data_analysis/Fig_01_02_03_04_05_14_Vals_Monitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1553AB24-32C9-244F-BFE5-AEF4265B3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EE095-E3AE-DC4A-9E67-994559311772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gph_vals_FSC_gilt_2014-2023" sheetId="42" r:id="rId1"/>
@@ -35234,8 +35234,8 @@
   </sheetPr>
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -37939,7 +37939,7 @@
   </sheetPr>
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
